--- a/Convites Encontrão ECC.xlsx
+++ b/Convites Encontrão ECC.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cleverson\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7665"/>
   </bookViews>
@@ -15,17 +10,12 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,14 +52,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -80,41 +62,43 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>51338</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485415</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>117743</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagem 21"/>
+        <xdr:cNvPr id="1025" name="Imagem 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="51338"/>
-          <a:ext cx="2876190" cy="2161905"/>
+          <a:off x="47625" y="47625"/>
+          <a:ext cx="2876550" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -122,43 +106,45 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>155306</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>54244</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>593096</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>120649</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagem 22"/>
+        <xdr:cNvPr id="1026" name="Imagem 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3203306" y="54244"/>
-          <a:ext cx="2876190" cy="2161905"/>
+          <a:off x="3200400" y="57150"/>
+          <a:ext cx="2876550" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -167,42 +153,44 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>124632</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485415</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>537</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagem 23"/>
+        <xdr:cNvPr id="1027" name="Imagem 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="2791632"/>
-          <a:ext cx="2876190" cy="2161905"/>
+          <a:off x="47625" y="2219325"/>
+          <a:ext cx="2876550" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -211,86 +199,44 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>131090</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485415</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3767</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagem 24"/>
+        <xdr:cNvPr id="1029" name="Imagem 25"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="5655590"/>
-          <a:ext cx="2876190" cy="2158677"/>
+          <a:off x="47625" y="6562725"/>
+          <a:ext cx="2876550" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>51823</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>105908</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>489613</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>172313</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagem 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51823" y="8487908"/>
-          <a:ext cx="2876190" cy="2161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -299,42 +245,44 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>128830</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590190</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1506</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Imagem 27"/>
+        <xdr:cNvPr id="1030" name="Imagem 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3200400" y="2795830"/>
-          <a:ext cx="2876190" cy="2158676"/>
+          <a:off x="3200400" y="2228850"/>
+          <a:ext cx="2876550" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -342,43 +290,45 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>152395</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>138194</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590185</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10871</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagem 28"/>
+        <xdr:cNvPr id="1031" name="Imagem 28"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3200395" y="5662694"/>
-          <a:ext cx="2876190" cy="2158677"/>
+          <a:off x="3200400" y="4400550"/>
+          <a:ext cx="2876550" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -386,43 +336,91 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>149970</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>110106</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>587760</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>173282</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Imagem 29"/>
+        <xdr:cNvPr id="1032" name="Imagem 29"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3197970" y="8492106"/>
-          <a:ext cx="2876190" cy="2158676"/>
+          <a:off x="3200400" y="6562725"/>
+          <a:ext cx="2876550" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Imagem 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="4400550"/>
+          <a:ext cx="2876550" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -473,7 +471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -508,7 +506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -685,22 +683,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.31496062992125984" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Convites Encontrão ECC.xlsx
+++ b/Convites Encontrão ECC.xlsx
@@ -15,13 +15,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,15 +65,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -86,7 +91,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="47625"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="2876550" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -105,62 +110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Imagem 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3200400" y="57150"/>
-          <a:ext cx="2876550" cy="2162175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -178,7 +137,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="2219325"/>
+          <a:off x="0" y="2171700"/>
           <a:ext cx="2876550" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -198,15 +157,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -224,7 +183,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="6562725"/>
+          <a:off x="0" y="6505575"/>
           <a:ext cx="2876550" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -243,154 +202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Imagem 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3200400" y="2228850"/>
-          <a:ext cx="2876550" cy="2152650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Imagem 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3200400" y="4400550"/>
-          <a:ext cx="2876550" cy="2152650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Imagem 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3200400" y="6562725"/>
-          <a:ext cx="2876550" cy="2152650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -408,7 +229,191 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="4400550"/>
+          <a:off x="0" y="4343400"/>
+          <a:ext cx="2876550" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1041" name="Imagem 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2886075" y="0"/>
+          <a:ext cx="2876550" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Imagem 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2886075" y="2171700"/>
+          <a:ext cx="2876550" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1043" name="Imagem 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2886075" y="6505575"/>
+          <a:ext cx="2876550" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="Imagem 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2886075" y="4343400"/>
           <a:ext cx="2876550" cy="2152650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -693,13 +698,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.31496062992125984" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
